--- a/data/TestExcel.xlsx
+++ b/data/TestExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2_AMURL" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="TEST SCENARIOS" sheetId="3" r:id="rId3"/>
     <sheet name="2_AAREQ" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="4_RREQ" sheetId="4" r:id="rId6"/>
-    <sheet name="4_VERIFY" sheetId="5" r:id="rId7"/>
+    <sheet name="Timeouts" sheetId="8" r:id="rId6"/>
+    <sheet name="4_RREQ" sheetId="4" r:id="rId7"/>
+    <sheet name="4_VERIFY" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="413">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1679,6 +1680,67 @@
   <si>
     <t xml:space="preserve"> $??:D</t>
   </si>
+  <si>
+    <t>_A628</t>
+  </si>
+  <si>
+    <t>Areq Request for random error code and commented DSTransid from ACS</t>
+  </si>
+  <si>
+    <t>Areq Request for empty error component and Commented ACSTransid form ACS</t>
+  </si>
+  <si>
+    <t>Areq Request for junk error code form ACS</t>
+  </si>
+  <si>
+    <t>Areq Request for empty error description form ACS</t>
+  </si>
+  <si>
+    <t>Areq Request for random error code 405 form ACS</t>
+  </si>
+  <si>
+    <t>Areq Request for empty error code form ACS</t>
+  </si>
+  <si>
+    <t>8601</t>
+  </si>
+  <si>
+    <t>中中文</t>
+  </si>
+  <si>
+    <t>ARes did not reach DS itself, DS should generate an Erro.</t>
+  </si>
+  <si>
+    <t>TestCaseScenario</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>{
+    "dsTransID": "3728f883-8ce3-42ca-be33-54649b628aba",
+    "errorCode": "402",
+    "errorComponent": "D",
+    "errorDescription": " Error occurred while receiving message from ACS: Time out occurred",
+    "errorDetail": "Timeout expiry reached for the transaction",
+    "errorMessageType": "AReq",
+    "messageType": "Erro",
+    "messageVersion": "2.1.0",
+    "threeDSServerTransID": "6aa95f64-d432-4c43-b722-ee82c8848616"
+}</t>
+  </si>
+  <si>
+    <t>CRes was not received by Merchant, and it issued RSRq without CRes, how 3ds server will respond</t>
+  </si>
+  <si>
+    <t>configure acs stub not to send any response to received Areq(cardexpirydate : 8701)</t>
+  </si>
+  <si>
+    <t>ARes did not reach 3DSS itself, 3DSS should generate an Erro.</t>
+  </si>
+  <si>
+    <t>configure DS stub not to send any response(Ares/Erro) to 3DSS</t>
+  </si>
 </sst>
 </file>
 
@@ -1714,7 +1776,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +1798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,6 +1890,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3631,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3890,6 +3965,48 @@
         <v>20</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18996,13 +19113,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP6"/>
+  <dimension ref="A1:EP7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="66.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:146" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -19449,7 +19569,7 @@
         <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
@@ -19518,7 +19638,7 @@
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>17</v>
@@ -19863,7 +19983,7 @@
         <v>381</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -19934,7 +20054,7 @@
         <v>405</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="AB3" s="11" t="s">
         <v>17</v>
@@ -20279,7 +20399,7 @@
         <v>382</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -20350,11 +20470,9 @@
         <v>403</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AB4" s="11"/>
       <c r="AC4" s="11" t="s">
         <v>17</v>
       </c>
@@ -20695,7 +20813,7 @@
         <v>383</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -20762,11 +20880,11 @@
       <c r="Y5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>395</v>
+      <c r="Z5" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="AB5" s="11" t="s">
         <v>17</v>
@@ -21111,7 +21229,7 @@
         <v>384</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -21178,9 +21296,7 @@
       <c r="Y6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Z6" s="11">
-        <v>405</v>
-      </c>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11" t="s">
         <v>17</v>
@@ -21520,6 +21636,422 @@
         <v>169</v>
       </c>
     </row>
+    <row r="7" spans="1:146" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>407</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ7" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="BS7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CL7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CN7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="CO7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CQ7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR7" s="7"/>
+      <c r="CS7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CU7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CV7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CW7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CX7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CY7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DA7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="DB7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="DC7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="DE7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="DF7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="DG7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="DH7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DI7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="DJ7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="DK7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="DL7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="DN7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="DO7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DP7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="DQ7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DV7" s="7">
+        <v>20200803</v>
+      </c>
+      <c r="DW7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="EA7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="EB7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="ED7" s="7"/>
+      <c r="EE7" s="7"/>
+      <c r="EF7" s="7"/>
+      <c r="EG7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="EH7" s="7"/>
+      <c r="EI7" s="7"/>
+      <c r="EJ7" s="7"/>
+      <c r="EK7" s="7"/>
+      <c r="EL7" s="7"/>
+      <c r="EM7" s="7"/>
+      <c r="EN7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="EO7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="EP7" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21527,6 +22059,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="60.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
@@ -21844,7 +22430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>

--- a/data/TestExcel.xlsx
+++ b/data/TestExcel.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6417" uniqueCount="414">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1740,6 +1740,18 @@
   </si>
   <si>
     <t>configure DS stub not to send any response(Ares/Erro) to 3DSS</t>
+  </si>
+  <si>
+    <t>{
+    "errorCode": "405",
+    "errorComponent": "S",
+    "errorDescription": "CA Merchant Server:: System Connection failure occured , NO DS Available for the Current PAN",
+    "errorDetail": " System Connection failure occured ",
+    "errorMessageType": "AReq",
+    "messageType": "Erro",
+    "messageVersion": "2.1.0",
+    "threeDSServerTransID": "532f1adf-26d0-4ed2-a45f-1224c8e0fe34"
+}</t>
   </si>
 </sst>
 </file>
@@ -22062,7 +22074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -22097,14 +22109,16 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>413</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
